--- a/rpt/flat.xlsx
+++ b/rpt/flat.xlsx
@@ -60,7 +60,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">SubCategory</t>
+          <t xml:space="preserve">Subcategory</t>
         </r>
       </text>
     </comment>
@@ -73,7 +73,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Category.Name</t>
+          <t xml:space="preserve">CategoryName</t>
         </r>
       </text>
     </comment>
@@ -257,7 +257,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/rpt/flat.xlsx
+++ b/rpt/flat.xlsx
@@ -141,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$Rp-421]#,##0.00;[RED]\([$Rp-421]#,##0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,6 +162,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF168253"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -212,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,7 +236,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,6 +269,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF168253"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -257,7 +340,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -276,7 +359,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -288,16 +371,16 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -334,7 +417,7 @@
       <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="5" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -353,18 +436,18 @@
       <c r="A9" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rpt/flat.xlsx
+++ b/rpt/flat.xlsx
@@ -249,7 +249,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -340,7 +340,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,7 +350,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.2"/>
